--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_16.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_16.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>

--- a/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_16.xlsx
+++ b/Results/RNN_Autoencoder_ClinicalData/Lambda_Abstain_Confusion_Matrix_Elements_Fold_16.xlsx
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
